--- a/1/9/2/Commodities, Spread y Bonos 1960 a 2021 - Trimestral.xlsx
+++ b/1/9/2/Commodities, Spread y Bonos 1960 a 2021 - Trimestral.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="251">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="252">
   <si>
     <t>Serie</t>
   </si>
@@ -767,6 +767,9 @@
   </si>
   <si>
     <t>01-04-2021</t>
+  </si>
+  <si>
+    <t>01-07-2021</t>
   </si>
 </sst>
 </file>
@@ -1124,7 +1127,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E247"/>
+  <dimension ref="A1:E248"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -4219,6 +4222,23 @@
         <v>1.6</v>
       </c>
     </row>
+    <row r="248" spans="1:5">
+      <c r="A248" t="s">
+        <v>251</v>
+      </c>
+      <c r="B248">
+        <v>4.3</v>
+      </c>
+      <c r="C248">
+        <v>70.59999999999999</v>
+      </c>
+      <c r="D248">
+        <v>141.3</v>
+      </c>
+      <c r="E248">
+        <v>1.3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
